--- a/tests/pandas/operators/date_proximity/basic/dropna_true_expected_result.xlsx
+++ b/tests/pandas/operators/date_proximity/basic/dropna_true_expected_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/lavalinker/tests/pandas/operators/date_proximity/basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/date_proximity/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F29E5-BDAC-E641-818E-0D815269FBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E616C-B151-9649-859B-8F12FDB57866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>PIDN_link</t>
-  </si>
-  <si>
-    <t>DCDate_link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>PIDN</t>
   </si>
@@ -49,18 +43,6 @@
     <t>Col6</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>_diff_days</t>
-  </si>
-  <si>
-    <t>_abs_diff_days</t>
-  </si>
-  <si>
-    <t>_duplicates</t>
-  </si>
-  <si>
     <t>FAQ</t>
   </si>
   <si>
@@ -71,6 +53,21 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>PIDN_x</t>
+  </si>
+  <si>
+    <t>DCDate_x</t>
+  </si>
+  <si>
+    <t>_mp_merge</t>
+  </si>
+  <si>
+    <t>_mp_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_abs_diff_days</t>
   </si>
 </sst>
 </file>
@@ -78,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,7 +131,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,67 +434,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -511,7 +504,7 @@
         <v>37302</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>21</v>
@@ -520,13 +513,13 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -534,11 +527,8 @@
       <c r="L2">
         <v>13</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -552,7 +542,7 @@
         <v>38078</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>23</v>
@@ -561,13 +551,13 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>-3</v>
@@ -575,11 +565,8 @@
       <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -593,7 +580,7 @@
         <v>38078</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>23</v>
@@ -602,13 +589,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>-4</v>
@@ -616,11 +603,8 @@
       <c r="L4">
         <v>4</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -634,7 +618,7 @@
         <v>38883</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>26</v>
@@ -643,22 +627,19 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
       <c r="L5">
         <v>9</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
